--- a/Firebase tanfolyam.xlsx
+++ b/Firebase tanfolyam.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Training360\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\firebase-course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D816604A-015E-4241-9ADB-1610DC1DADCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DABE978-B882-43D7-A96A-C18CF53E247B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2560" windowWidth="28800" windowHeight="15910" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15910" tabRatio="804" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Firebase" sheetId="4" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -331,6 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -672,10 +673,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B2:H46"/>
+  <dimension ref="A2:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -690,7 +691,7 @@
     <col min="8" max="8" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -720,7 +721,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="16" t="s">
         <v>5</v>
       </c>
@@ -728,7 +729,7 @@
       <c r="D4" s="18"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
       <c r="E5" s="15"/>
@@ -736,7 +737,7 @@
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
     </row>
-    <row r="6" spans="2:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
@@ -753,7 +754,7 @@
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -771,7 +772,10 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="19">
+        <v>1</v>
+      </c>
       <c r="B8" s="7" t="s">
         <v>11</v>
       </c>
@@ -789,7 +793,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="19">
+        <v>2</v>
+      </c>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -807,7 +814,10 @@
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
     </row>
-    <row r="10" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="19">
+        <v>3</v>
+      </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
@@ -817,7 +827,10 @@
       <c r="D10" s="11"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="19">
+        <v>4</v>
+      </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
@@ -827,7 +840,7 @@
       <c r="D11" s="11"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
@@ -837,7 +850,7 @@
       <c r="D12" s="11"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
@@ -847,7 +860,7 @@
       <c r="D13" s="11"/>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
@@ -857,7 +870,7 @@
       <c r="D14" s="11"/>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
@@ -867,7 +880,7 @@
       <c r="D15" s="11"/>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="2:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
